--- a/examples/test/MyStringUtilsTestNgpPoiData.xlsx
+++ b/examples/test/MyStringUtilsTestNgpPoiData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="13995" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="2535" windowWidth="18195" windowHeight="7395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="objTest" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,9 +16,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="19">
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>str1</t>
+  </si>
+  <si>
+    <t>delim</t>
+  </si>
+  <si>
+    <t>str2</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>str1str2</t>
+  </si>
+  <si>
+    <t>str1:str2</t>
+  </si>
+  <si>
+    <t>main.example.Hoge:moge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moge.str1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hogehoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fugafuga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>moge.fuga.str2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>piyopiyo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mogemoge</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -26,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +103,11 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,10 +132,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -363,17 +432,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -384,12 +929,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/examples/test/MyStringUtilsTestNgpPoiData.xlsx
+++ b/examples/test/MyStringUtilsTestNgpPoiData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -48,7 +48,19 @@
     <t>str1:str2</t>
   </si>
   <si>
-    <t>main.example.Hoge:moge</t>
+    <t>main.example.Hoge:hoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge.str1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.example.Fuga:hoge.fuga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge.fuga.str2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -60,23 +72,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>moge.str1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>hogehoge</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>piyopiyo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>fugafuga</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>moge.fuga.str2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>piyopiyo</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -88,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +112,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,12 +149,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -929,68 +950,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/examples/test/MyStringUtilsTestNgpPoiData.xlsx
+++ b/examples/test/MyStringUtilsTestNgpPoiData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>mogemoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>not null</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -455,7 +459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -953,7 +959,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1001,6 +1007,9 @@
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
@@ -1014,6 +1023,9 @@
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>19</v>

--- a/examples/test/MyStringUtilsTestNgpPoiData.xlsx
+++ b/examples/test/MyStringUtilsTestNgpPoiData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -89,6 +89,46 @@
   </si>
   <si>
     <t>not null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.ArrayList:foo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.example.Hoge:foo[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foo[0].str1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buzz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.ArrayList:list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redmine</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -956,10 +996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -969,10 +1009,14 @@
     <col min="3" max="3" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="26.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -988,16 +1032,40 @@
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1013,8 +1081,23 @@
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1029,6 +1112,21 @@
       </c>
       <c r="E4" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/examples/test/MyStringUtilsTestNgpPoiData.xlsx
+++ b/examples/test/MyStringUtilsTestNgpPoiData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -96,39 +96,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>not null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foo[0].str1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buzz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.ArrayList:list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ant</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redmine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>main.example.Hoge:foo[0]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>main.example.Hoge:key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m{key}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>not null</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>foo[0].str1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buzz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>java.util.ArrayList:list</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list[0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ant</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>redmine</t>
+    <t>map入ったよ</t>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.HashMap:m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>key2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.example.Hoge:m{key2}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m{key2}.str1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -193,15 +240,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,137 +1051,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="2.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="165.75">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="4">
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="4">
+        <v>40952</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>30</v>
+      <c r="N4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/examples/test/MyStringUtilsTestNgpPoiData.xlsx
+++ b/examples/test/MyStringUtilsTestNgpPoiData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -176,6 +176,34 @@
   </si>
   <si>
     <t>str1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.ArrayList:hoge.hogelist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge.hogelist[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge.hogelist[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1051,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1072,7 +1100,7 @@
     <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="165.75">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="201.75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1149,17 @@
       <c r="P1" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1156,8 +1193,11 @@
       <c r="P2" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1206,8 +1246,17 @@
       <c r="P3" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1255,6 +1304,15 @@
       </c>
       <c r="P4" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/examples/test/MyStringUtilsTestNgpPoiData.xlsx
+++ b/examples/test/MyStringUtilsTestNgpPoiData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2535" windowWidth="18195" windowHeight="7395" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2535" windowWidth="18195" windowHeight="7395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
@@ -204,6 +204,146 @@
   </si>
   <si>
     <t>bbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this is sample sheet!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.ArrayList:list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.HashSet:set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.HashMap:map</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.lang.String[4]:array</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str1!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str2!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str3!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str4!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.ArrayList:emptyList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.HashSet:emptySet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.HashMap:emptyMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.lang.String[4]:emptyArray</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blankCell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blankString</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.ArrayList:nullList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.HashSet:nullSet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.HashMap:nullMap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.lang.String[4]:nullArray</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[str1, str2, str3, str5]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{str1=str2, str3=str5}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -211,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +385,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +432,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,9 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1323,13 +1480,185 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="2.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="3" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="20.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="10" customFormat="1" ht="138.75">
+      <c r="A1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>100</v>
+      </c>
+      <c r="F2" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="G2" s="8">
+        <v>40974</v>
+      </c>
+      <c r="H2" s="9">
+        <v>40974.524259259262</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/examples/test/MyStringUtilsTestNgpPoiData.xlsx
+++ b/examples/test/MyStringUtilsTestNgpPoiData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="93">
   <si>
     <t>No</t>
   </si>
@@ -344,6 +344,37 @@
   </si>
   <si>
     <t>{str1=str2, str3=str5}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.example.Hoge:hoge</t>
+  </si>
+  <si>
+    <t>hoge.str1</t>
+  </si>
+  <si>
+    <t>main.example.Fuga:hoge.fuga</t>
+  </si>
+  <si>
+    <t>hoge.fuga.str2</t>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge#str1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge#fuga#str2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.util.ArrayList:hoge.hogelist</t>
+  </si>
+  <si>
+    <t>[nullList, nullSet, nullMap]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1240,7 +1271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1480,9 +1513,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE3" sqref="AE3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -1502,10 +1537,15 @@
     <col min="23" max="24" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.875" style="7" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="7"/>
+    <col min="27" max="27" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="10" customFormat="1" ht="138.75">
+    <row r="1" spans="1:31" s="10" customFormat="1" ht="152.25">
       <c r="A1" s="10" t="s">
         <v>49</v>
       </c>
@@ -1584,8 +1624,23 @@
       <c r="Z1" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1654,6 +1709,21 @@
       </c>
       <c r="Z2" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
